--- a/BalanceSheet/AMT_bal.xlsx
+++ b/BalanceSheet/AMT_bal.xlsx
@@ -4293,7 +4293,7 @@
         <v>29792000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>29483000000.0</v>
+        <v>22477400000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>20035300000.0</v>
@@ -4420,7 +4420,7 @@
         <v>31192000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>31061000000.0</v>
+        <v>24055400000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>21483600000.0</v>
